--- a/仕様書/会社評価システムマニュアル.xlsx
+++ b/仕様書/会社評価システムマニュアル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC1261C-D011-4716-8B64-45130DDBA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C25338-67C2-4623-8B98-3589081DD813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="996" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="996" firstSheet="12" activeTab="16" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="16" r:id="rId1"/>
@@ -1292,74 +1292,11 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,6 +1314,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1434,6 +1374,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2370,6 +2370,18 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -2379,7 +2391,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>評価項目が入力されていない場合</a:t>
+            <a:t>評価項目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が入力されていない場合</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -2403,7 +2439,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・評価項目が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>評価項目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -2451,7 +2535,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・説明が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>説明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -2484,7 +2616,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2505,34 +2637,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>か、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Expt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:t>[pt],[Expt]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2543,34 +2651,12 @@
             </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
@@ -2593,7 +2679,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
+            <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -2655,36 +2741,14 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2696,19 +2760,19 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[pt]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2720,19 +2784,19 @@
             <a:t>と</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Expt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Expt]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2744,7 +2808,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2756,7 +2820,7 @@
             <a:t>0</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3333,7 +3397,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・評価項目が入力されていない場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>評価項目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が入力されていない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -3351,7 +3463,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・評価項目が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>評価項目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -3393,7 +3553,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・説明が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>説明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -3447,7 +3655,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
+            <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -3459,33 +3667,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>か、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Expt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3513,7 +3697,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
+            <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -3575,7 +3759,7 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3603,7 +3787,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
+            <a:t>[pt]</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -3627,7 +3811,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Expt</a:t>
+            <a:t>[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -3665,7 +3849,7 @@
             </a:rPr>
             <a:t>の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -4072,7 +4256,23 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>①のボタンを押下して最低賃金変更ボタンを表示</a:t>
+            <a:t>①のボタンを押下して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>最低賃金変更</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ボタンを表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
@@ -4625,7 +4825,23 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>②のボタンを押下して最低賃金を変更</a:t>
+            <a:t>②のボタンを押下して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>最低賃金</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>を変更</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
@@ -7121,18 +7337,30 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>※</a:t>
+            <a:t>※[</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>会社評価を行った場合、</a:t>
+            <a:t>会社評価</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
               <a:effectLst/>
             </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>を行った場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:effectLst/>
+            </a:rPr>
             <a:t>[</a:t>
           </a:r>
           <a:r>
@@ -7157,7 +7385,7 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>pt,Expt</a:t>
+            <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
@@ -7806,7 +8034,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>のチェックボックスを押下してポイントを付与</a:t>
+            <a:t>のチェックボックスを押下して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ポイント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を付与</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -12546,7 +12822,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>A1</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
@@ -14148,11 +14424,19 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>①にユーザ</a:t>
+            <a:t>①に</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ID</a:t>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>ID]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
@@ -14164,7 +14448,23 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>②にパスワードを入力</a:t>
+            <a:t>②に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>パスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>を入力</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
@@ -15569,7 +15869,23 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>①のテーブルを押下すると押下した行の社員データを取得可能</a:t>
+            <a:t>①のテーブルを押下すると押下した行の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>のデータを取得可能</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
@@ -15640,7 +15956,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>チェックボタンを押下して削除した社員のみ表示可能</a:t>
+            <a:t>チェックボタンを押下して削除した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のみ表示可能</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -17951,7 +18315,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・社員番号を入力していない場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を入力していない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -17969,7 +18381,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・氏名を入力していない場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を入力していない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -17987,7 +18447,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・すでに登録されている社員番号を登録する場合</a:t>
+            <a:t>・すでに登録されている</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を登録する場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -18005,7 +18513,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・社員番号が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -18047,7 +18603,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・氏名が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -18101,7 +18705,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>IT</a:t>
+            <a:t>[IT</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -18149,7 +18753,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)</a:t>
+            <a:t>)]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -18239,7 +18843,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>IT</a:t>
+            <a:t>[IT</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -18287,7 +18891,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)</a:t>
+            <a:t>)]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -18365,7 +18969,103 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・入社日と生年月日が入力されていない場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入社日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生年月日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が入力されていない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -18383,7 +19083,103 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・入社日が生年月日よりも前の場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入社日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生年月日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>よりも前の場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -18401,7 +19197,151 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・入社日と生年月日がシステム日付よりも後の場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入社日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生年月日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>システム日付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>よりも後の場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -19146,7 +20086,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・氏名を入力していない場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を入力していない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -19176,7 +20164,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>登録されていない社員番号を更新する場合</a:t>
+            <a:t>登録されていない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を更新する場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -19194,7 +20230,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・氏名が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -19248,7 +20332,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>IT</a:t>
+            <a:t>[IT</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -19296,7 +20380,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)</a:t>
+            <a:t>)]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -19386,7 +20470,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>IT</a:t>
+            <a:t>[IT</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -19434,7 +20518,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)</a:t>
+            <a:t>)]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -19512,7 +20596,103 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・入社日と生年月日が入力されていない場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入社日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生年月日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が入力されていない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -19530,7 +20710,103 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・入社日が生年月日よりも前の場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入社日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生年月日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>よりも前の場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -19548,7 +20824,151 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・入社日と生年月日がシステム日付よりも後の場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入社日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生年月日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>システム日付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>よりも後の場合</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -19572,7 +20992,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>※</a:t>
+            <a:t>※[</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
@@ -19584,7 +21004,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>社員番号は更新できません</a:t>
+            <a:t>社員番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は更新できません</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -20905,7 +22349,23 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>①のテーブルを押下すると押下した行の会社評価のデータを取得可能</a:t>
+            <a:t>①のテーブルを押下すると押下した行の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>会社評価</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>のデータを取得可能</a:t>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
@@ -22505,6 +23965,18 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -22514,7 +23986,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>内容を入力していない場合</a:t>
+            <a:t>内容</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を入力していない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -22535,6 +24031,18 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -22544,7 +24052,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>内容が</a:t>
+            <a:t>内容</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -22608,7 +24140,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・備考が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>備考</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -22662,31 +24242,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>か、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Expt</a:t>
+            <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
@@ -22750,7 +24306,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
+            <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -22862,7 +24418,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
+            <a:t>[pt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
@@ -22886,7 +24442,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Expt</a:t>
+            <a:t>[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
@@ -22943,6 +24499,18 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -22952,7 +24520,175 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>技官区分が会社貢献系で業資区分が会社貢献系でない場合</a:t>
+            <a:t>技官区分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会社貢献系</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>業資区分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会社貢献系</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>でない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -22973,6 +24709,18 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -22994,7 +24742,91 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>区分が会社貢献系で</a:t>
+            <a:t>区分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会社貢献系</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
@@ -23018,7 +24850,79 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>区分が会社貢献系でない場合</a:t>
+            <a:t>区分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会社貢献系</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>でない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -23586,7 +25490,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・内容を入力していない場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内容</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を入力していない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -23604,7 +25556,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・内容が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内容</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -23646,7 +25646,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・備考が</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>備考</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -23700,7 +25748,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
+            <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -23712,7 +25760,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>か、</a:t>
+            <a:t>が入力されていない場合</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -23724,7 +25790,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Expt</a:t>
+            <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -23736,7 +25802,355 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>が入力されていない場合</a:t>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>32768</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以上もしくは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-32769</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以下の場合</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[pt]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Expt]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>技官区分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会社貢献系</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>業資区分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会社貢献系</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>でない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -23766,7 +26180,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pt</a:t>
+            <a:t>[</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -23778,6 +26192,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>業資区分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>が</a:t>
           </a:r>
           <a:r>
@@ -23790,7 +26228,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>32768</a:t>
+            <a:t>[</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -23802,7 +26240,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>以上もしくは</a:t>
+            <a:t>会社貢献系</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -23814,7 +26252,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-32769</a:t>
+            <a:t>]</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
@@ -23826,64 +26264,46 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>以下の場合</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Expt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>技官区分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -23895,35 +26315,17 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>の場合</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
@@ -23934,14 +26336,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・技官区分が会社貢献系で業資区分が会社貢献系でない場合</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:t>会社貢献系</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
               <a:solidFill>
@@ -23952,7 +26360,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・業資区分が会社貢献系で技官区分が会社貢献系でない場合</a:t>
+            <a:t>でない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
             <a:effectLst/>
@@ -24361,7 +26769,23 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>①のテーブルを押下すると押下した行の自己評価のデータを取得可能</a:t>
+            <a:t>①のテーブルを押下すると押下した行の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>自己評価</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>のデータを取得可能</a:t>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
@@ -25468,7 +27892,7 @@
   </sheetPr>
   <dimension ref="B2:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="35" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="35" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
@@ -25592,8 +28016,8 @@
   </sheetPr>
   <dimension ref="A1:AS58"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A44" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView view="pageLayout" topLeftCell="A82" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -25955,8 +28379,8 @@
   </sheetPr>
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView view="pageLayout" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -26340,8 +28764,8 @@
   </sheetPr>
   <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView view="pageLayout" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -26700,7 +29124,7 @@
   </sheetPr>
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A54" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -27038,8 +29462,8 @@
   </sheetPr>
   <dimension ref="A1:AS45"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView view="pageLayout" topLeftCell="E66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE82" sqref="AE82:AS82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27398,7 +29822,7 @@
   </sheetPr>
   <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -27758,7 +30182,7 @@
   </sheetPr>
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -28118,7 +30542,7 @@
   </sheetPr>
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A51" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:AS42"/>
     </sheetView>
   </sheetViews>
@@ -28493,14 +30917,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
@@ -28512,12 +30936,12 @@
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
@@ -28529,12 +30953,12 @@
       <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -28547,12 +30971,12 @@
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
@@ -28581,615 +31005,623 @@
       <c r="P6" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
     </row>
     <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
     </row>
     <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
     </row>
     <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
     </row>
     <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
     </row>
     <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
     </row>
     <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
     </row>
     <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
     </row>
     <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
     </row>
     <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B36:Q37"/>
+    <mergeCell ref="B38:Q39"/>
+    <mergeCell ref="B24:Q25"/>
+    <mergeCell ref="B26:Q27"/>
+    <mergeCell ref="B28:Q29"/>
+    <mergeCell ref="B30:Q31"/>
+    <mergeCell ref="B32:Q33"/>
+    <mergeCell ref="B34:Q35"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="B18:Q19"/>
     <mergeCell ref="B20:Q21"/>
@@ -29199,14 +31631,6 @@
     <mergeCell ref="B12:Q13"/>
     <mergeCell ref="B14:Q15"/>
     <mergeCell ref="B16:Q17"/>
-    <mergeCell ref="B36:Q37"/>
-    <mergeCell ref="B38:Q39"/>
-    <mergeCell ref="B24:Q25"/>
-    <mergeCell ref="B26:Q27"/>
-    <mergeCell ref="B28:Q29"/>
-    <mergeCell ref="B30:Q31"/>
-    <mergeCell ref="B32:Q33"/>
-    <mergeCell ref="B34:Q35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -29238,150 +31662,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="89"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="69"/>
     </row>
     <row r="2" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="92"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72"/>
     </row>
     <row r="3" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="92"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="72"/>
     </row>
     <row r="4" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="71" t="s">
+      <c r="T6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="73"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="52"/>
     </row>
     <row r="7" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="76"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="55"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -29431,22 +31855,22 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="11"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="62" t="s">
+      <c r="T9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="83"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="63"/>
       <c r="Y9" s="2"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="62" t="s">
+      <c r="AC9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="64"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="77"/>
     </row>
     <row r="10" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" s="10"/>
@@ -29465,20 +31889,20 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="13"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="86"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="67"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="80"/>
     </row>
     <row r="11" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="10"/>
@@ -29511,39 +31935,39 @@
       <c r="O12" s="10"/>
       <c r="Q12" s="12"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="71" t="s">
+      <c r="T12" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="73"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="52"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="62" t="s">
+      <c r="AC12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="64"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="77"/>
     </row>
     <row r="13" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="76"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="55"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="67"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="80"/>
     </row>
     <row r="14" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="15"/>
@@ -29626,22 +32050,22 @@
       <c r="K18" s="15"/>
       <c r="Q18" s="12"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="62" t="s">
+      <c r="T18" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="64"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="77"/>
       <c r="Y18" s="2"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="62" t="s">
+      <c r="AC18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="64"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="77"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -29649,20 +32073,20 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="14"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="67"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="80"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="67"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="80"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -29699,38 +32123,38 @@
       <c r="S24" s="17"/>
       <c r="U24" s="12"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="62" t="s">
+      <c r="AC24" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="64"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="77"/>
       <c r="AH24" s="2"/>
       <c r="AK24" s="5"/>
-      <c r="AL24" s="62" t="s">
+      <c r="AL24" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AM24" s="63"/>
-      <c r="AN24" s="63"/>
-      <c r="AO24" s="63"/>
-      <c r="AP24" s="64"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="77"/>
       <c r="AT24" s="5"/>
-      <c r="AU24" s="56" t="s">
+      <c r="AU24" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AV24" s="57"/>
-      <c r="AW24" s="57"/>
-      <c r="AX24" s="57"/>
-      <c r="AY24" s="58"/>
+      <c r="AV24" s="85"/>
+      <c r="AW24" s="85"/>
+      <c r="AX24" s="85"/>
+      <c r="AY24" s="86"/>
       <c r="BC24" s="5"/>
-      <c r="BD24" s="50" t="s">
+      <c r="BD24" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="BE24" s="51"/>
-      <c r="BF24" s="51"/>
-      <c r="BG24" s="51"/>
-      <c r="BH24" s="52"/>
+      <c r="BE24" s="91"/>
+      <c r="BF24" s="91"/>
+      <c r="BG24" s="91"/>
+      <c r="BH24" s="92"/>
     </row>
     <row r="25" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="4"/>
@@ -29745,38 +32169,38 @@
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="67"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="80"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="14"/>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="67"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="79"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="79"/>
+      <c r="AP25" s="80"/>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
       <c r="AT25" s="8"/>
-      <c r="AU25" s="59"/>
-      <c r="AV25" s="60"/>
-      <c r="AW25" s="60"/>
-      <c r="AX25" s="60"/>
-      <c r="AY25" s="61"/>
+      <c r="AU25" s="87"/>
+      <c r="AV25" s="88"/>
+      <c r="AW25" s="88"/>
+      <c r="AX25" s="88"/>
+      <c r="AY25" s="89"/>
       <c r="AZ25" s="14"/>
       <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
       <c r="BC25" s="8"/>
-      <c r="BD25" s="53"/>
-      <c r="BE25" s="54"/>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="54"/>
-      <c r="BH25" s="55"/>
+      <c r="BD25" s="93"/>
+      <c r="BE25" s="94"/>
+      <c r="BF25" s="94"/>
+      <c r="BG25" s="94"/>
+      <c r="BH25" s="95"/>
     </row>
     <row r="26" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="4"/>
@@ -29816,70 +32240,70 @@
     <row r="30" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q30" s="12"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="62" t="s">
+      <c r="T30" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="64"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="77"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="56" t="s">
+      <c r="AC30" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="58"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="86"/>
       <c r="AK30" s="5"/>
-      <c r="AL30" s="50" t="s">
+      <c r="AL30" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="52"/>
+      <c r="AM30" s="91"/>
+      <c r="AN30" s="91"/>
+      <c r="AO30" s="91"/>
+      <c r="AP30" s="92"/>
     </row>
     <row r="31" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J31" s="25"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
       <c r="P31" s="26"/>
       <c r="R31" s="14"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="67"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="80"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="8"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="61"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="89"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="55"/>
+      <c r="AL31" s="93"/>
+      <c r="AM31" s="94"/>
+      <c r="AN31" s="94"/>
+      <c r="AO31" s="94"/>
+      <c r="AP31" s="95"/>
     </row>
     <row r="32" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
       <c r="AL32" s="1" t="s">
         <v>15</v>
       </c>
@@ -29889,39 +32313,39 @@
     <row r="35" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AB36" s="5"/>
-      <c r="AC36" s="62" t="s">
+      <c r="AC36" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AD36" s="63"/>
-      <c r="AE36" s="63"/>
-      <c r="AF36" s="63"/>
-      <c r="AG36" s="64"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="77"/>
     </row>
     <row r="37" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="8"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="67"/>
+      <c r="AC37" s="78"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="80"/>
     </row>
     <row r="38" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="27"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
       <c r="P38" s="33"/>
     </row>
     <row r="39" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
     </row>
     <row r="40" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -29935,11 +32359,11 @@
     <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T9:X10"/>
-    <mergeCell ref="A1:T4"/>
+    <mergeCell ref="BD24:BH25"/>
+    <mergeCell ref="AL30:AP31"/>
+    <mergeCell ref="AU24:AY25"/>
+    <mergeCell ref="T18:X19"/>
+    <mergeCell ref="AC18:AG19"/>
     <mergeCell ref="AC9:AG10"/>
     <mergeCell ref="K31:O32"/>
     <mergeCell ref="AC24:AG25"/>
@@ -29950,11 +32374,11 @@
     <mergeCell ref="T12:X13"/>
     <mergeCell ref="AC12:AG13"/>
     <mergeCell ref="AC36:AG37"/>
-    <mergeCell ref="BD24:BH25"/>
-    <mergeCell ref="AL30:AP31"/>
-    <mergeCell ref="AU24:AY25"/>
-    <mergeCell ref="T18:X19"/>
-    <mergeCell ref="AC18:AG19"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T9:X10"/>
+    <mergeCell ref="A1:T4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -29973,8 +32397,8 @@
   </sheetPr>
   <dimension ref="A1:AT47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A17" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A57" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30414,8 +32838,8 @@
   </sheetPr>
   <dimension ref="A1:AT49"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A57" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A63" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30780,8 +33204,8 @@
   </sheetPr>
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AY54" sqref="AY54"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30953,7 +33377,7 @@
   </sheetPr>
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -31174,8 +33598,8 @@
   </sheetPr>
   <dimension ref="A1:AV42"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A42" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView view="pageLayout" topLeftCell="A58" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE79" sqref="AE79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31502,8 +33926,8 @@
   </sheetPr>
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView view="pageLayout" topLeftCell="A59" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
